--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6D5F7-DE4D-40B8-A9D6-3208D76D6636}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCD6776-A51D-4DCE-B0FA-D7C56935C585}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{41C6DC81-6DC5-4CD6-BA32-E3A9FD2DF3A4}"/>
   </bookViews>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Prolems</t>
-  </si>
-  <si>
-    <t>Fix</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"> A large number of sliders</t>
   </si>
@@ -69,9 +54,6 @@
     <t>Files will not be processed</t>
   </si>
   <si>
-    <t>Resource constraints</t>
-  </si>
-  <si>
     <t>Program will propperly function</t>
   </si>
   <si>
@@ -85,6 +67,21 @@
   </si>
   <si>
     <t>Ideal should be closest to ideal values and max raise sliders to the cutoff</t>
+  </si>
+  <si>
+    <t>Item to be tested</t>
+  </si>
+  <si>
+    <t>Data outputs</t>
+  </si>
+  <si>
+    <t>Expected outputs</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Changes</t>
   </si>
 </sst>
 </file>
@@ -445,92 +442,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4E81D5-AD71-42B7-970C-DE9F059B45E3}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" customWidth="1"/>
-    <col min="2" max="2" width="61.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="62.08984375" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C34E54-43DF-4B90-9109-E5B67D3DB2C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C1AC38-8BC9-4D06-9CF7-5E65021F2A02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{41C6DC81-6DC5-4CD6-BA32-E3A9FD2DF3A4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Letters, negative values or blanks in files</t>
   </si>
@@ -141,20 +141,20 @@
     <t>GUI updates sliders and distance from the ldeal values is printed if it is the new min</t>
   </si>
   <si>
-    <t>The ideal function needs to be fixed/improved as it doesn’t get as close as it can</t>
-  </si>
-  <si>
     <t>Ideal is used redo</t>
   </si>
   <si>
     <t>Actual (left pictures are taken first)</t>
+  </si>
+  <si>
+    <t>To Fix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -198,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,13 +667,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2090617</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4326068</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -697,13 +711,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4519</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1909885</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -741,13 +755,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>395236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1886045</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1777366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -785,13 +799,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1949898</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>55723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5466850</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2028209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -829,13 +843,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>56866</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>161121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2328334</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>733185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -873,13 +887,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3100916</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>115816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5090583</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1869774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -905,6 +919,50 @@
         <a:xfrm>
           <a:off x="9397999" y="15842649"/>
           <a:ext cx="1989667" cy="1753958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1232545</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>325074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5197706</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>864780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C7E1B5-A793-48C7-B457-30D59C481481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7538243" y="13571469"/>
+          <a:ext cx="3965161" cy="539706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4E81D5-AD71-42B7-970C-DE9F059B45E3}">
   <dimension ref="A1:BT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="59" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -1712,11 +1770,11 @@
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1787,17 +1845,13 @@
     </row>
     <row r="8" spans="1:72" ht="198.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1868,17 +1922,17 @@
     </row>
     <row r="9" spans="1:72" ht="153.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1949,7 +2003,17 @@
     </row>
     <row r="10" spans="1:72" ht="104" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2020,16 +2084,12 @@
     </row>
     <row r="11" spans="1:72" ht="127" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2099,13 +2159,13 @@
     </row>
     <row r="12" spans="1:72" ht="143.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2176,15 +2236,15 @@
       <c r="BS12" s="2"/>
       <c r="BT12" s="1"/>
     </row>
-    <row r="13" spans="1:72" ht="52" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:72" ht="104" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2255,14 +2315,16 @@
       <c r="BS13" s="2"/>
       <c r="BT13" s="1"/>
     </row>
-    <row r="14" spans="1:72" ht="104" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:72" ht="52" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
@@ -2332,9 +2394,13 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="1"/>
     </row>
-    <row r="15" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:72" ht="104" x14ac:dyDescent="0.6">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2406,9 +2472,7 @@
       <c r="BT15" s="1"/>
     </row>
     <row r="16" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2481,7 +2545,9 @@
       <c r="BT16" s="1"/>
     </row>
     <row r="17" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3503,7 +3569,7 @@
       <c r="BT30" s="1"/>
     </row>
     <row r="31" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A31" s="6"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3576,7 +3642,7 @@
       <c r="BT31" s="1"/>
     </row>
     <row r="32" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A32" s="6"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3649,7 +3715,7 @@
       <c r="BT32" s="1"/>
     </row>
     <row r="33" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A33" s="6"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3722,11 +3788,11 @@
       <c r="BT33" s="1"/>
     </row>
     <row r="34" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3795,11 +3861,11 @@
       <c r="BT34" s="1"/>
     </row>
     <row r="35" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3868,11 +3934,11 @@
       <c r="BT35" s="1"/>
     </row>
     <row r="36" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3941,11 +4007,11 @@
       <c r="BT36" s="1"/>
     </row>
     <row r="37" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -4014,11 +4080,11 @@
       <c r="BT37" s="1"/>
     </row>
     <row r="38" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -4087,11 +4153,11 @@
       <c r="BT38" s="1"/>
     </row>
     <row r="39" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -4160,11 +4226,11 @@
       <c r="BT39" s="1"/>
     </row>
     <row r="40" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -4233,11 +4299,11 @@
       <c r="BT40" s="1"/>
     </row>
     <row r="41" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -4306,11 +4372,11 @@
       <c r="BT41" s="1"/>
     </row>
     <row r="42" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C1AC38-8BC9-4D06-9CF7-5E65021F2A02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A34BB-8F7E-43FE-A789-A88ADFCB301D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{41C6DC81-6DC5-4CD6-BA32-E3A9FD2DF3A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="467" xr2:uid="{41C6DC81-6DC5-4CD6-BA32-E3A9FD2DF3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
-  <si>
-    <t>Letters, negative values or blanks in files</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Extended use</t>
   </si>
@@ -105,9 +102,6 @@
     <t>Extended use redo</t>
   </si>
   <si>
-    <t>Redo all tests</t>
-  </si>
-  <si>
     <t>Memory or processing power will not increase with time and frame rate will stay the same, otherwise the program should function normally</t>
   </si>
   <si>
@@ -149,12 +143,21 @@
   <si>
     <t>To Fix</t>
   </si>
+  <si>
+    <t>Wasn’t deleting self.slider_colors when slider was removed</t>
+  </si>
+  <si>
+    <t>Letters or blanks in files</t>
+  </si>
+  <si>
+    <t>None. As a note, negative values can still be used in sliders and so should not be filtered.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,21 +180,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -236,11 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,15 +262,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4581236</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2575357</xdr:rowOff>
+      <xdr:colOff>5153268</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -301,8 +299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12914923" y="996462"/>
-          <a:ext cx="4581236" cy="2575357"/>
+          <a:off x="6325576" y="1660769"/>
+          <a:ext cx="5153269" cy="2467407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -402,15 +400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>58821</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>786642</xdr:rowOff>
+      <xdr:rowOff>875765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5469772</xdr:colOff>
+      <xdr:colOff>5503193</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1211143</xdr:rowOff>
+      <xdr:rowOff>1300266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -433,7 +431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6318534" y="8141269"/>
+          <a:off x="6353119" y="7905326"/>
           <a:ext cx="5444372" cy="424501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -446,15 +444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>176094</xdr:colOff>
+      <xdr:colOff>86971</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>512203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5025961</xdr:colOff>
+      <xdr:colOff>5421611</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>998577</xdr:rowOff>
+      <xdr:rowOff>1047193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -477,8 +475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6469228" y="10444740"/>
-          <a:ext cx="4849867" cy="486374"/>
+          <a:off x="6381269" y="10115185"/>
+          <a:ext cx="5334640" cy="534990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -578,15 +576,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>29535</xdr:colOff>
+      <xdr:colOff>163220</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>191977</xdr:rowOff>
+      <xdr:rowOff>515046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4302113</xdr:colOff>
+      <xdr:colOff>5469914</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>730988</xdr:rowOff>
+      <xdr:rowOff>1184517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -609,8 +607,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12943663" y="8786628"/>
-          <a:ext cx="4272578" cy="539011"/>
+          <a:off x="6457518" y="11777941"/>
+          <a:ext cx="5306694" cy="669471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -624,13 +622,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>239271</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1442704</xdr:rowOff>
+      <xdr:rowOff>1286738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4143331</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1798469</xdr:rowOff>
+      <xdr:rowOff>1642503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,7 +651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12066146" y="13031454"/>
+          <a:off x="12059183" y="12549633"/>
           <a:ext cx="3904060" cy="355765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -842,15 +840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>56866</xdr:colOff>
+      <xdr:colOff>312761</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161121</xdr:rowOff>
+      <xdr:rowOff>312763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2328334</xdr:colOff>
+      <xdr:colOff>2584229</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>733185</xdr:rowOff>
+      <xdr:rowOff>884827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -873,7 +871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353949" y="15887954"/>
+          <a:off x="6605895" y="19580748"/>
           <a:ext cx="2271468" cy="572064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -930,15 +928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1232545</xdr:colOff>
+      <xdr:colOff>118511</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>325074</xdr:rowOff>
+      <xdr:rowOff>534736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5197706</xdr:colOff>
+      <xdr:colOff>5486644</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>864780</xdr:rowOff>
+      <xdr:rowOff>1080613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -961,8 +959,492 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7538243" y="13571469"/>
-          <a:ext cx="3965161" cy="539706"/>
+          <a:off x="6412809" y="13624648"/>
+          <a:ext cx="5368133" cy="545877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99644</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1175558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4194689</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1568397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB26142-187A-4541-8DE3-4244A606DC14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11920413" y="14419844"/>
+          <a:ext cx="4095045" cy="392839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236594</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>376377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2340351</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1556160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B7A7AC-6C91-4294-93D9-58CCB2EC6D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6530150" y="22714266"/>
+          <a:ext cx="2103757" cy="1179783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2715550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>362267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4823472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1547973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A015E2C-3223-4FDF-9E30-6EE7F32774C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9009106" y="22700156"/>
+          <a:ext cx="2107922" cy="1185706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>159432</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1641756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2599187</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3020645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92FAF10-3359-4607-8AE8-B7B2905435EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6461204" y="27170364"/>
+          <a:ext cx="2439755" cy="1378889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2809118</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1615098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5284111</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3007281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB11A00B-0107-478E-A15D-7B5CCBB977AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110890" y="27143706"/>
+          <a:ext cx="2474993" cy="1392183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2598588</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1451659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8849E6C1-6E8C-437D-9C06-8C5A0B41AD03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6473247" y="25615017"/>
+          <a:ext cx="2427113" cy="1365250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2803025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5183948</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1426258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFDD9E3-CB65-42A2-8B2E-9973E86DE5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9104797" y="25615597"/>
+          <a:ext cx="2380923" cy="1339269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114534</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>260158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2673684</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1699680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EC5E4B-458E-4F77-A58F-0855389A3F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6408832" y="28957702"/>
+          <a:ext cx="2559150" cy="1439522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2716454</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>248569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5284924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1693333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5053A8B7-BD21-461E-B491-C7CB17ED5EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010752" y="28946113"/>
+          <a:ext cx="2568470" cy="1444764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123208</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2611716</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1420518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647DEBFA-9AA5-4359-AA8A-268FE4500F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6416764" y="30740622"/>
+          <a:ext cx="2488508" cy="1399785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3042665</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5461983</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1411110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F97B3FD-5D4B-49F9-AB4F-50BF106305DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9336221" y="30770132"/>
+          <a:ext cx="2419318" cy="1360867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4E81D5-AD71-42B7-970C-DE9F059B45E3}">
   <dimension ref="A1:BT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="49" zoomScaleNormal="36" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1284,24 +1766,24 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="79.08984375" customWidth="1"/>
     <col min="5" max="5" width="61.7265625" customWidth="1"/>
-    <col min="6" max="6" width="164.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="130.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="4"/>
@@ -1373,17 +1855,17 @@
     </row>
     <row r="2" spans="1:72" ht="194.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1454,17 +1936,17 @@
     </row>
     <row r="3" spans="1:72" ht="228" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1535,13 +2017,13 @@
     </row>
     <row r="4" spans="1:72" ht="203" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -1614,13 +2096,13 @@
     </row>
     <row r="5" spans="1:72" ht="131" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1689,15 +2171,15 @@
       <c r="BS5" s="2"/>
       <c r="BT5" s="1"/>
     </row>
-    <row r="6" spans="1:72" ht="156" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:72" ht="143.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1768,13 +2250,13 @@
     </row>
     <row r="7" spans="1:72" ht="133.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>38</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1845,13 +2327,13 @@
     </row>
     <row r="8" spans="1:72" ht="198.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1922,17 +2404,17 @@
     </row>
     <row r="9" spans="1:72" ht="153.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2001,19 +2483,19 @@
       <c r="BS9" s="2"/>
       <c r="BT9" s="1"/>
     </row>
-    <row r="10" spans="1:72" ht="104" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:72" ht="210" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="12" t="s">
-        <v>38</v>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2084,12 +2566,12 @@
     </row>
     <row r="11" spans="1:72" ht="127" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2157,18 +2639,20 @@
       <c r="BS11" s="2"/>
       <c r="BT11" s="1"/>
     </row>
-    <row r="12" spans="1:72" ht="143.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:72" ht="250.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2236,18 +2720,20 @@
       <c r="BS12" s="2"/>
       <c r="BT12" s="1"/>
     </row>
-    <row r="13" spans="1:72" ht="104" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:72" ht="249" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2315,18 +2801,20 @@
       <c r="BS13" s="2"/>
       <c r="BT13" s="1"/>
     </row>
-    <row r="14" spans="1:72" ht="52" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:72" ht="173" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2394,16 +2882,18 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="1"/>
     </row>
-    <row r="15" spans="1:72" ht="104" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:72" ht="115" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2471,12 +2961,7 @@
       <c r="BS15" s="2"/>
       <c r="BT15" s="1"/>
     </row>
-    <row r="16" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="16" spans="1:72" ht="26" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2544,14 +3029,14 @@
       <c r="BS16" s="2"/>
       <c r="BT16" s="1"/>
     </row>
-    <row r="17" spans="1:72" ht="26" x14ac:dyDescent="0.6">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
+    <row r="17" spans="1:72" ht="41" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>18</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2619,7 +3104,7 @@
       <c r="BS17" s="2"/>
       <c r="BT17" s="1"/>
     </row>
-    <row r="18" spans="1:72" ht="26" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:72" ht="28" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A34BB-8F7E-43FE-A789-A88ADFCB301D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39940F94-FE94-4AF2-B07D-BD0129327B0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="467" xr2:uid="{41C6DC81-6DC5-4CD6-BA32-E3A9FD2DF3A4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Extended use</t>
   </si>
@@ -135,22 +135,13 @@
     <t>GUI updates sliders and distance from the ldeal values is printed if it is the new min</t>
   </si>
   <si>
-    <t>Ideal is used redo</t>
-  </si>
-  <si>
     <t>Actual (left pictures are taken first)</t>
-  </si>
-  <si>
-    <t>To Fix</t>
   </si>
   <si>
     <t>Wasn’t deleting self.slider_colors when slider was removed</t>
   </si>
   <si>
     <t>Letters or blanks in files</t>
-  </si>
-  <si>
-    <t>None. As a note, negative values can still be used in sliders and so should not be filtered.</t>
   </si>
 </sst>
 </file>
@@ -664,15 +655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2090617</xdr:colOff>
+      <xdr:colOff>2593888</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:rowOff>11277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4326068</xdr:colOff>
+      <xdr:colOff>5434654</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19538</xdr:rowOff>
+      <xdr:rowOff>16161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -695,8 +686,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15000655" y="10365154"/>
-          <a:ext cx="2212730" cy="957384"/>
+          <a:off x="8893223" y="14795293"/>
+          <a:ext cx="2840766" cy="2524618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,7 +705,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1909885</xdr:colOff>
+      <xdr:colOff>2607553</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:to>
@@ -739,8 +730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12914557" y="10355382"/>
-          <a:ext cx="1905366" cy="962271"/>
+          <a:off x="6303854" y="14788898"/>
+          <a:ext cx="2603034" cy="2529505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,94 +831,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>312761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>312763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2584229</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>884827</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E402190-312F-4C63-848A-837DBDB5383D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6605895" y="19580748"/>
-          <a:ext cx="2271468" cy="572064"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3100916</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>115816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5090583</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1869774</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4307239-EAEE-47F6-973C-8385ECC8F67F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9397999" y="15842649"/>
-          <a:ext cx="1989667" cy="1753958"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>118511</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>534736</xdr:rowOff>
@@ -952,7 +855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -996,7 +899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1017,13 +920,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>236594</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>376377</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>198741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2340351</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>2657107</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1556160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1040,15 +943,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6530150" y="22714266"/>
-          <a:ext cx="2103757" cy="1179783"/>
+          <a:off x="6538121" y="22118359"/>
+          <a:ext cx="2420513" cy="1357419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,15 +963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2715550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>362267</xdr:rowOff>
+      <xdr:colOff>2681618</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4823472</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1547973</xdr:rowOff>
+      <xdr:colOff>5019931</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1518889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1084,15 +987,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9009106" y="22700156"/>
-          <a:ext cx="2107922" cy="1185706"/>
+          <a:off x="8983145" y="22123206"/>
+          <a:ext cx="2338313" cy="1315301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1105,13 +1008,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>159432</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1641756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2599187</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3020645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1128,7 +1031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1149,13 +1052,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2809118</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1615098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5284111</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3007281</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1172,7 +1075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1193,13 +1096,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171475</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>86409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2598588</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1451659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1216,7 +1119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1237,13 +1140,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2803025</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>86989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5183948</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1426258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1260,7 +1163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1281,13 +1184,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114534</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>260158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2673684</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1699680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1304,7 +1207,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1325,13 +1228,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2716454</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>248569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5284924</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1693333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1348,7 +1251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1369,13 +1272,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123208</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>20733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2611716</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1420518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1392,7 +1295,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1413,13 +1316,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3042665</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>50243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5461983</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1411110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1436,7 +1339,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1445,6 +1348,94 @@
         <a:xfrm>
           <a:off x="9336221" y="30770132"/>
           <a:ext cx="2419318" cy="1360867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2799971</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>402328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5383164</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1857097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5E6897-AD6E-402F-98E1-785517C8AE8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9101498" y="19655916"/>
+          <a:ext cx="2583193" cy="1454769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>116537</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>405722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2695114</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1852723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20C8683-AE57-4E9B-8931-1F3250564974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6418064" y="19659310"/>
+          <a:ext cx="2578577" cy="1447001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4E81D5-AD71-42B7-970C-DE9F059B45E3}">
   <dimension ref="A1:BT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="49" zoomScaleNormal="36" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -1936,7 +1927,7 @@
     </row>
     <row r="3" spans="1:72" ht="228" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -1946,7 +1937,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2256,7 +2247,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2494,8 +2485,8 @@
         <v>32</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2566,12 +2557,18 @@
     </row>
     <row r="11" spans="1:72" ht="127" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2641,13 +2638,13 @@
     </row>
     <row r="12" spans="1:72" ht="250.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -2722,13 +2719,13 @@
     </row>
     <row r="13" spans="1:72" ht="249" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -2803,14 +2800,12 @@
     </row>
     <row r="14" spans="1:72" ht="173" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>27</v>
@@ -2882,18 +2877,7 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="1"/>
     </row>
-    <row r="15" spans="1:72" ht="115" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="15" spans="1:72" ht="22" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2962,6 +2946,11 @@
       <c r="BT15" s="1"/>
     </row>
     <row r="16" spans="1:72" ht="26" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -3029,14 +3018,7 @@
       <c r="BS16" s="2"/>
       <c r="BT16" s="1"/>
     </row>
-    <row r="17" spans="1:72" ht="41" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
+    <row r="17" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39940F94-FE94-4AF2-B07D-BD0129327B0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9005A8-AD0E-4FEC-AE21-138FAC757370}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="467" xr2:uid="{41C6DC81-6DC5-4CD6-BA32-E3A9FD2DF3A4}"/>
   </bookViews>
@@ -1746,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4E81D5-AD71-42B7-970C-DE9F059B45E3}">
   <dimension ref="A1:BT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2877,7 +2877,7 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="1"/>
     </row>
-    <row r="15" spans="1:72" ht="22" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:72" ht="20.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
